--- a/code_by_day.xlsx
+++ b/code_by_day.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22890" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="88">
   <si>
     <t>DATE</t>
   </si>
@@ -244,7 +244,13 @@
     <t>996</t>
   </si>
   <si>
-    <t>1031</t>
+    <t>Chikh</t>
+  </si>
+  <si>
+    <t>Chekh Mad</t>
+  </si>
+  <si>
+    <t>Cheikh</t>
   </si>
   <si>
     <t>297</t>
@@ -254,6 +260,9 @@
   </si>
   <si>
     <t>904</t>
+  </si>
+  <si>
+    <t>1031</t>
   </si>
   <si>
     <t>1038</t>
@@ -267,20 +276,27 @@
   <si>
     <t>1685</t>
   </si>
+  <si>
+    <t>2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,19 +304,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,22 +676,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -621,17 +1268,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1243"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1299" workbookViewId="0">
+      <selection activeCell="C1330" sqref="C1330"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1708,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="C98">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7241,7 +7893,7 @@
         <v>25</v>
       </c>
       <c r="C601">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7747,7 +8399,7 @@
         <v>7</v>
       </c>
       <c r="C647">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10453,7 +11105,7 @@
         <v>17</v>
       </c>
       <c r="C893">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -11660,10 +12312,10 @@
         <v>44805</v>
       </c>
       <c r="B1003" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C1003">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11671,10 +12323,10 @@
         <v>44805</v>
       </c>
       <c r="B1004" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C1004">
-        <v>58</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11682,10 +12334,10 @@
         <v>44805</v>
       </c>
       <c r="B1005" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1005">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11693,10 +12345,10 @@
         <v>44805</v>
       </c>
       <c r="B1006" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C1006">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11704,10 +12356,10 @@
         <v>44805</v>
       </c>
       <c r="B1007" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1007">
-        <v>19</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11715,10 +12367,10 @@
         <v>44805</v>
       </c>
       <c r="B1008" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C1008">
-        <v>281</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -12034,10 +12686,10 @@
         <v>44807</v>
       </c>
       <c r="B1037" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C1037">
-        <v>46</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -12045,10 +12697,10 @@
         <v>44807</v>
       </c>
       <c r="B1038" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C1038">
-        <v>466</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -12056,10 +12708,10 @@
         <v>44807</v>
       </c>
       <c r="B1039" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1039">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -12067,10 +12719,10 @@
         <v>44807</v>
       </c>
       <c r="B1040" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1040">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -12078,10 +12730,10 @@
         <v>44807</v>
       </c>
       <c r="B1041" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C1041">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -12103,7 +12755,7 @@
         <v>5</v>
       </c>
       <c r="C1043">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -12551,10 +13203,10 @@
         <v>44810</v>
       </c>
       <c r="B1084" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C1084">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12562,10 +13214,10 @@
         <v>44810</v>
       </c>
       <c r="B1085" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1085">
         <v>23</v>
-      </c>
-      <c r="C1085">
-        <v>28</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12573,10 +13225,10 @@
         <v>44810</v>
       </c>
       <c r="B1086" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C1086">
-        <v>23</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
@@ -12595,7 +13247,7 @@
         <v>44811</v>
       </c>
       <c r="B1088" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1088">
         <v>24</v>
@@ -12617,7 +13269,7 @@
         <v>44811</v>
       </c>
       <c r="B1090" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1090">
         <v>21</v>
@@ -12672,7 +13324,7 @@
         <v>44811</v>
       </c>
       <c r="B1095" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1095">
         <v>28</v>
@@ -12705,7 +13357,7 @@
         <v>44811</v>
       </c>
       <c r="B1098" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C1098">
         <v>2</v>
@@ -12716,7 +13368,7 @@
         <v>44811</v>
       </c>
       <c r="B1099" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1099">
         <v>156</v>
@@ -12782,7 +13434,7 @@
         <v>44811</v>
       </c>
       <c r="B1105" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1105">
         <v>17</v>
@@ -13016,7 +13668,7 @@
         <v>6</v>
       </c>
       <c r="C1126">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -13090,7 +13742,7 @@
         <v>44813</v>
       </c>
       <c r="B1133" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1133">
         <v>75</v>
@@ -13926,7 +14578,7 @@
         <v>44819</v>
       </c>
       <c r="B1209" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1209">
         <v>815</v>
@@ -14047,7 +14699,7 @@
         <v>44820</v>
       </c>
       <c r="B1220" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1220">
         <v>780</v>
@@ -14168,7 +14820,7 @@
         <v>44821</v>
       </c>
       <c r="B1231" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1231">
         <v>459</v>
@@ -14278,7 +14930,7 @@
         <v>44822</v>
       </c>
       <c r="B1241" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1241">
         <v>462</v>
@@ -14306,7 +14958,965 @@
         <v>36</v>
       </c>
     </row>
+    <row r="1244" spans="1:3">
+      <c r="A1244" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1244">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3">
+      <c r="A1245" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1245">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3">
+      <c r="A1246" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1246">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3">
+      <c r="A1247" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1247">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3">
+      <c r="A1248" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1248">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3">
+      <c r="A1249" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1249">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3">
+      <c r="A1250" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1250">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3">
+      <c r="A1251" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1251">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3">
+      <c r="A1252" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1252">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3">
+      <c r="A1253" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1253">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3">
+      <c r="A1254" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1254">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3">
+      <c r="A1255" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1255">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3">
+      <c r="A1256" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1256">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3">
+      <c r="A1257" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3">
+      <c r="A1258" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1258">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3">
+      <c r="A1259" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1259">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
+      <c r="A1260" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1260">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3">
+      <c r="A1261" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1261">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
+      <c r="A1262" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1262">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3">
+      <c r="A1263" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1263">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3">
+      <c r="A1264" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1264">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3">
+      <c r="A1265" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3">
+      <c r="A1266" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1266">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3">
+      <c r="A1267" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1267">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3">
+      <c r="A1268" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1268">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3">
+      <c r="A1269" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1269">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1270">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3">
+      <c r="A1271" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1271">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3">
+      <c r="A1272" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1272">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3">
+      <c r="A1273" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1273">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3">
+      <c r="A1275" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1275">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1276">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3">
+      <c r="A1277" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1277">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3">
+      <c r="A1278" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1278">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3">
+      <c r="A1279" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1279">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3">
+      <c r="A1280" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1280">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3">
+      <c r="A1281" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1281">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3">
+      <c r="A1282" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1282">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3">
+      <c r="A1283" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1283">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3">
+      <c r="A1284" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3">
+      <c r="A1285" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1285">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3">
+      <c r="A1286" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1286">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3">
+      <c r="A1287" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1287">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3">
+      <c r="A1288" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1288">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3">
+      <c r="A1289" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1289">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3">
+      <c r="A1290" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1290">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3">
+      <c r="A1291" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1291">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3">
+      <c r="A1292" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1292">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3">
+      <c r="A1293" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1293">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3">
+      <c r="A1294" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1294">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3">
+      <c r="A1295" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1295">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3">
+      <c r="A1296" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1296">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3">
+      <c r="A1297" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1297">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3">
+      <c r="A1298" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1298">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3">
+      <c r="A1299" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1299">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3">
+      <c r="A1300" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1300">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3">
+      <c r="A1301" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1301">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3">
+      <c r="A1302" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1302">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3">
+      <c r="A1303" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1303">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3">
+      <c r="A1304" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1304">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3">
+      <c r="A1305" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1305">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3">
+      <c r="A1306" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1306">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3">
+      <c r="A1307" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1307">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3">
+      <c r="A1308" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1308">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3">
+      <c r="A1309" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1309">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3">
+      <c r="A1310" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1310">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3">
+      <c r="A1311" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1311">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3">
+      <c r="A1312" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1312">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3">
+      <c r="A1313" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1313">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3">
+      <c r="A1314" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1314">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3">
+      <c r="A1315" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1315">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3">
+      <c r="A1316" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1316">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3">
+      <c r="A1317" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1317">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3">
+      <c r="A1318" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1318">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3">
+      <c r="A1319" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1319">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3">
+      <c r="A1320" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1320">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3">
+      <c r="A1321" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1321">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3">
+      <c r="A1322" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1322">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3">
+      <c r="A1323" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1323">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3">
+      <c r="A1324" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1324">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3">
+      <c r="A1325" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1325">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3">
+      <c r="A1326" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1326">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3">
+      <c r="A1327" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1327">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3">
+      <c r="A1328" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1328">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3">
+      <c r="A1329" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1329">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3">
+      <c r="A1330" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1330">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>